--- a/algo.xlsx
+++ b/algo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1DD6139-5896-454A-A99B-1DE44884BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4089CE-6B4C-463C-8957-BA3F749A757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AA418EFC-DDF6-4556-9D58-D12D533DD02A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>algorithms discussions</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>https://www.codechef.com/problems/MAIL_DELIVER?tab=statement</t>
+  </si>
+  <si>
+    <t>binary lifting</t>
+  </si>
+  <si>
+    <t>https://cses.fi/problemset/task/1687</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B7D5DA-65CC-4402-AE6C-0706FDEFF1E0}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,11 +446,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{43C0D4AF-503D-4A91-BB22-262879F76DB5}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{692057FE-0171-4A55-A021-2E3CF48B4031}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/algo.xlsx
+++ b/algo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4089CE-6B4C-463C-8957-BA3F749A757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BC0913-1058-47FA-84BC-A9F4874D9EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AA418EFC-DDF6-4556-9D58-D12D533DD02A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>algorithms discussions</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>https://cses.fi/problemset/task/1687</t>
+  </si>
+  <si>
+    <t>lca</t>
+  </si>
+  <si>
+    <t>https://cses.fi/problemset/task/1688</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B7D5DA-65CC-4402-AE6C-0706FDEFF1E0}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,12 +463,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{43C0D4AF-503D-4A91-BB22-262879F76DB5}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{692057FE-0171-4A55-A021-2E3CF48B4031}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{C7348FE1-9D5B-4A5F-8CBE-8049A0441534}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>